--- a/Dataset Excel Sheets/Unique Words with IDs.xlsx
+++ b/Dataset Excel Sheets/Unique Words with IDs.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t>UNIQUE_WORDS</t>
   </si>
@@ -304,6 +305,15 @@
   </si>
   <si>
     <t>NUMBER ID</t>
+  </si>
+  <si>
+    <t># Instances</t>
+  </si>
+  <si>
+    <t>TOTAL INSTANCES</t>
+  </si>
+  <si>
+    <t>COUNT</t>
   </si>
 </sst>
 </file>
@@ -367,17 +377,344 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -388,6 +725,2979 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COUNT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CFB-479D-A8DC-8AA293B49AEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1254735024"/>
+        <c:axId val="1254741264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1254735024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1254741264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1254741264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1254735024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL INSTANCES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2936</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-557D-4B60-80A2-79CBDE890B98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1248090864"/>
+        <c:axId val="1248085456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1248090864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1248085456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1248085456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1248090864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28603</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>567447</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>67553</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>578114</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,8 +3987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1446,4 +4756,3455 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W94"/>
+  <sheetViews>
+    <sheetView zoomScale="34" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="23" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <f>SUM(D2:W2)</f>
+        <v>146</v>
+      </c>
+      <c r="C2" s="4">
+        <f>COUNT(D2:W2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>146</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <f>SUM(D3:W3)</f>
+        <v>299</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C66" si="0">COUNT(D3:W3)</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>147</v>
+      </c>
+      <c r="E3" s="5">
+        <v>152</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <f>SUM(D4:W4)</f>
+        <v>165</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>165</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <f>SUM(D5:W5)</f>
+        <v>146</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>146</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUM(D6:W6)</f>
+        <v>290</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>146</v>
+      </c>
+      <c r="E6" s="5">
+        <v>144</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <f>SUM(D7:W7)</f>
+        <v>146</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>146</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <f>SUM(D8:W8)</f>
+        <v>148</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>148</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUM(D9:W9)</f>
+        <v>145</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>145</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <f>SUM(D10:W10)</f>
+        <v>145</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>145</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <f>SUM(D11:W11)</f>
+        <v>165</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>165</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <f>SUM(D12:W12)</f>
+        <v>151</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>151</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <f>SUM(D13:W13)</f>
+        <v>146</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>146</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <f>SUM(D14:W14)</f>
+        <v>1036</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="5">
+        <v>152</v>
+      </c>
+      <c r="E14" s="5">
+        <v>149</v>
+      </c>
+      <c r="F14" s="5">
+        <v>147</v>
+      </c>
+      <c r="G14" s="5">
+        <v>146</v>
+      </c>
+      <c r="H14" s="5">
+        <v>149</v>
+      </c>
+      <c r="I14" s="5">
+        <v>147</v>
+      </c>
+      <c r="J14" s="5">
+        <v>146</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <f>SUM(D15:W15)</f>
+        <v>149</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>149</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <f>SUM(D16:W16)</f>
+        <v>148</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>148</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <f>SUM(D17:W17)</f>
+        <v>145</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>145</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <f>SUM(D18:W18)</f>
+        <v>145</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>145</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <f>SUM(D19:W19)</f>
+        <v>733</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D19" s="5">
+        <v>148</v>
+      </c>
+      <c r="E19" s="5">
+        <v>146</v>
+      </c>
+      <c r="F19" s="5">
+        <v>148</v>
+      </c>
+      <c r="G19" s="5">
+        <v>146</v>
+      </c>
+      <c r="H19" s="5">
+        <v>145</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <f>SUM(D20:W20)</f>
+        <v>144</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>144</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <f>SUM(D21:W21)</f>
+        <v>152</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>152</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <f>SUM(D22:W22)</f>
+        <v>148</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>148</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <f>SUM(D23:W23)</f>
+        <v>144</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>144</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <f>SUM(D24:W24)</f>
+        <v>165</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>165</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <f>SUM(D25:W25)</f>
+        <v>303</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>157</v>
+      </c>
+      <c r="E25" s="5">
+        <v>146</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <f>SUM(D26:W26)</f>
+        <v>197</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>197</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <f>SUM(D27:W27)</f>
+        <v>145</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>145</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <f>SUM(D28:W28)</f>
+        <v>144</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>144</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <f>SUM(D29:W29)</f>
+        <v>447</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D29" s="5">
+        <v>157</v>
+      </c>
+      <c r="E29" s="5">
+        <v>146</v>
+      </c>
+      <c r="F29" s="5">
+        <v>144</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <f>SUM(D30:W30)</f>
+        <v>152</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>152</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <f>SUM(D31:W31)</f>
+        <v>157</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>157</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <f>SUM(D32:W32)</f>
+        <v>152</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>152</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <f>SUM(D33:W33)</f>
+        <v>144</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>144</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <f>SUM(D34:W34)</f>
+        <v>148</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>148</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <f>SUM(D35:W35)</f>
+        <v>2936</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D35" s="5">
+        <v>146</v>
+      </c>
+      <c r="E35" s="5">
+        <v>152</v>
+      </c>
+      <c r="F35" s="5">
+        <v>145</v>
+      </c>
+      <c r="G35" s="5">
+        <v>146</v>
+      </c>
+      <c r="H35" s="5">
+        <v>151</v>
+      </c>
+      <c r="I35" s="5">
+        <v>147</v>
+      </c>
+      <c r="J35" s="5">
+        <v>152</v>
+      </c>
+      <c r="K35" s="5">
+        <v>141</v>
+      </c>
+      <c r="L35" s="5">
+        <v>147</v>
+      </c>
+      <c r="M35" s="5">
+        <v>146</v>
+      </c>
+      <c r="N35" s="5">
+        <v>153</v>
+      </c>
+      <c r="O35" s="5">
+        <v>145</v>
+      </c>
+      <c r="P35" s="5">
+        <v>148</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>148</v>
+      </c>
+      <c r="R35" s="5">
+        <v>145</v>
+      </c>
+      <c r="S35" s="5">
+        <v>146</v>
+      </c>
+      <c r="T35" s="5">
+        <v>144</v>
+      </c>
+      <c r="U35" s="5">
+        <v>145</v>
+      </c>
+      <c r="V35" s="5">
+        <v>144</v>
+      </c>
+      <c r="W35" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <f>SUM(D36:W36)</f>
+        <v>436</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D36" s="5">
+        <v>145</v>
+      </c>
+      <c r="E36" s="5">
+        <v>143</v>
+      </c>
+      <c r="F36" s="5">
+        <v>148</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <f>SUM(D37:W37)</f>
+        <v>165</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
+        <v>165</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <f>SUM(D38:W38)</f>
+        <v>146</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
+        <v>146</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <f>SUM(D39:W39)</f>
+        <v>351</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>147</v>
+      </c>
+      <c r="E39" s="5">
+        <v>204</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <f>SUM(D40:W40)</f>
+        <v>894</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D40" s="5">
+        <v>165</v>
+      </c>
+      <c r="E40" s="5">
+        <v>146</v>
+      </c>
+      <c r="F40" s="5">
+        <v>148</v>
+      </c>
+      <c r="G40" s="5">
+        <v>145</v>
+      </c>
+      <c r="H40" s="5">
+        <v>144</v>
+      </c>
+      <c r="I40" s="5">
+        <v>146</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <f>SUM(D41:W41)</f>
+        <v>144</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
+        <v>144</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <f>SUM(D42:W42)</f>
+        <v>451</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D42" s="5">
+        <v>157</v>
+      </c>
+      <c r="E42" s="5">
+        <v>146</v>
+      </c>
+      <c r="F42" s="5">
+        <v>148</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <f>SUM(D43:W43)</f>
+        <v>197</v>
+      </c>
+      <c r="C43" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
+        <v>197</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4">
+        <f>SUM(D44:W44)</f>
+        <v>145</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
+        <v>145</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4">
+        <f>SUM(D45:W45)</f>
+        <v>165</v>
+      </c>
+      <c r="C45" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
+        <v>165</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4">
+        <f>SUM(D46:W46)</f>
+        <v>148</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D46" s="5">
+        <v>148</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <f>SUM(D47:W47)</f>
+        <v>296</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D47" s="5">
+        <v>149</v>
+      </c>
+      <c r="E47" s="5">
+        <v>147</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4">
+        <f>SUM(D48:W48)</f>
+        <v>438</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D48" s="5">
+        <v>148</v>
+      </c>
+      <c r="E48" s="5">
+        <v>144</v>
+      </c>
+      <c r="F48" s="5">
+        <v>146</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <f>SUM(D49:W49)</f>
+        <v>438</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D49" s="5">
+        <v>148</v>
+      </c>
+      <c r="E49" s="5">
+        <v>146</v>
+      </c>
+      <c r="F49" s="5">
+        <v>144</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4">
+        <f>SUM(D50:W50)</f>
+        <v>144</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
+        <v>144</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <f>SUM(D51:W51)</f>
+        <v>735</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D51" s="5">
+        <v>157</v>
+      </c>
+      <c r="E51" s="5">
+        <v>145</v>
+      </c>
+      <c r="F51" s="5">
+        <v>143</v>
+      </c>
+      <c r="G51" s="5">
+        <v>146</v>
+      </c>
+      <c r="H51" s="5">
+        <v>144</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4">
+        <f>SUM(D52:W52)</f>
+        <v>147</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D52" s="5">
+        <v>147</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <f>SUM(D53:W53)</f>
+        <v>144</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="5">
+        <v>144</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4">
+        <f>SUM(D54:W54)</f>
+        <v>296</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D54" s="5">
+        <v>148</v>
+      </c>
+      <c r="E54" s="5">
+        <v>148</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4">
+        <f>SUM(D55:W55)</f>
+        <v>148</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
+        <v>148</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4">
+        <f>SUM(D56:W56)</f>
+        <v>152</v>
+      </c>
+      <c r="C56" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
+        <v>152</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4">
+        <f>SUM(D57:W57)</f>
+        <v>145</v>
+      </c>
+      <c r="C57" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
+        <v>145</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4">
+        <f>SUM(D58:W58)</f>
+        <v>147</v>
+      </c>
+      <c r="C58" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="5">
+        <v>147</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4">
+        <f>SUM(D59:W59)</f>
+        <v>204</v>
+      </c>
+      <c r="C59" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
+        <v>204</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4">
+        <f>SUM(D60:W60)</f>
+        <v>293</v>
+      </c>
+      <c r="C60" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D60" s="5">
+        <v>146</v>
+      </c>
+      <c r="E60" s="5">
+        <v>147</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4">
+        <f>SUM(D61:W61)</f>
+        <v>146</v>
+      </c>
+      <c r="C61" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D61" s="5">
+        <v>146</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4">
+        <f>SUM(D62:W62)</f>
+        <v>145</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D62" s="5">
+        <v>145</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4">
+        <f>SUM(D63:W63)</f>
+        <v>157</v>
+      </c>
+      <c r="C63" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="5">
+        <v>157</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4">
+        <f>SUM(D64:W64)</f>
+        <v>148</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D64" s="5">
+        <v>148</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4">
+        <f>SUM(D65:W65)</f>
+        <v>145</v>
+      </c>
+      <c r="C65" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D65" s="5">
+        <v>145</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4">
+        <f>SUM(D66:W66)</f>
+        <v>146</v>
+      </c>
+      <c r="C66" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="5">
+        <v>146</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4">
+        <f>SUM(D67:W67)</f>
+        <v>290</v>
+      </c>
+      <c r="C67" s="4">
+        <f t="shared" ref="C67:C94" si="1">COUNT(D67:W67)</f>
+        <v>2</v>
+      </c>
+      <c r="D67" s="5">
+        <v>146</v>
+      </c>
+      <c r="E67" s="5">
+        <v>144</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4">
+        <f>SUM(D68:W68)</f>
+        <v>153</v>
+      </c>
+      <c r="C68" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="5">
+        <v>153</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4">
+        <f>SUM(D69:W69)</f>
+        <v>143</v>
+      </c>
+      <c r="C69" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
+        <v>143</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4">
+        <f>SUM(D70:W70)</f>
+        <v>144</v>
+      </c>
+      <c r="C70" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="5">
+        <v>144</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4">
+        <f>SUM(D71:W71)</f>
+        <v>146</v>
+      </c>
+      <c r="C71" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="5">
+        <v>146</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4">
+        <f>SUM(D72:W72)</f>
+        <v>311</v>
+      </c>
+      <c r="C72" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D72" s="5">
+        <v>165</v>
+      </c>
+      <c r="E72" s="5">
+        <v>146</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4">
+        <f>SUM(D73:W73)</f>
+        <v>146</v>
+      </c>
+      <c r="C73" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D73" s="5">
+        <v>146</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4">
+        <f>SUM(D74:W74)</f>
+        <v>141</v>
+      </c>
+      <c r="C74" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D74" s="5">
+        <v>141</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4">
+        <f>SUM(D75:W75)</f>
+        <v>468</v>
+      </c>
+      <c r="C75" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D75" s="5">
+        <v>165</v>
+      </c>
+      <c r="E75" s="5">
+        <v>157</v>
+      </c>
+      <c r="F75" s="5">
+        <v>146</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4">
+        <f>SUM(D76:W76)</f>
+        <v>144</v>
+      </c>
+      <c r="C76" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
+        <v>144</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4">
+        <f>SUM(D77:W77)</f>
+        <v>146</v>
+      </c>
+      <c r="C77" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
+        <v>146</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4">
+        <f>SUM(D78:W78)</f>
+        <v>143</v>
+      </c>
+      <c r="C78" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="5">
+        <v>143</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4">
+        <f>SUM(D79:W79)</f>
+        <v>293</v>
+      </c>
+      <c r="C79" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D79" s="5">
+        <v>146</v>
+      </c>
+      <c r="E79" s="5">
+        <v>147</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4">
+        <f>SUM(D80:W80)</f>
+        <v>594</v>
+      </c>
+      <c r="C80" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D80" s="5">
+        <v>152</v>
+      </c>
+      <c r="E80" s="5">
+        <v>149</v>
+      </c>
+      <c r="F80" s="5">
+        <v>147</v>
+      </c>
+      <c r="G80" s="5">
+        <v>146</v>
+      </c>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4">
+        <f>SUM(D81:W81)</f>
+        <v>289</v>
+      </c>
+      <c r="C81" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D81" s="5">
+        <v>145</v>
+      </c>
+      <c r="E81" s="5">
+        <v>144</v>
+      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4">
+        <f>SUM(D82:W82)</f>
+        <v>148</v>
+      </c>
+      <c r="C82" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D82" s="5">
+        <v>148</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4">
+        <f>SUM(D83:W83)</f>
+        <v>143</v>
+      </c>
+      <c r="C83" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D83" s="5">
+        <v>143</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4">
+        <f>SUM(D84:W84)</f>
+        <v>165</v>
+      </c>
+      <c r="C84" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D84" s="5">
+        <v>165</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4">
+        <f>SUM(D85:W85)</f>
+        <v>146</v>
+      </c>
+      <c r="C85" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D85" s="5">
+        <v>146</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4">
+        <f>SUM(D86:W86)</f>
+        <v>587</v>
+      </c>
+      <c r="C86" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D86" s="5">
+        <v>149</v>
+      </c>
+      <c r="E86" s="5">
+        <v>148</v>
+      </c>
+      <c r="F86" s="5">
+        <v>144</v>
+      </c>
+      <c r="G86" s="5">
+        <v>146</v>
+      </c>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4">
+        <f>SUM(D87:W87)</f>
+        <v>295</v>
+      </c>
+      <c r="C87" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D87" s="5">
+        <v>152</v>
+      </c>
+      <c r="E87" s="5">
+        <v>143</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4">
+        <f>SUM(D88:W88)</f>
+        <v>144</v>
+      </c>
+      <c r="C88" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D88" s="5">
+        <v>144</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4">
+        <f>SUM(D89:W89)</f>
+        <v>145</v>
+      </c>
+      <c r="C89" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="5">
+        <v>145</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4">
+        <f>SUM(D90:W90)</f>
+        <v>145</v>
+      </c>
+      <c r="C90" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D90" s="5">
+        <v>145</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4">
+        <f>SUM(D91:W91)</f>
+        <v>145</v>
+      </c>
+      <c r="C91" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D91" s="5">
+        <v>145</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4">
+        <f>SUM(D92:W92)</f>
+        <v>152</v>
+      </c>
+      <c r="C92" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D92" s="5">
+        <v>152</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4">
+        <f>SUM(D93:W93)</f>
+        <v>145</v>
+      </c>
+      <c r="C93" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D93" s="5">
+        <v>145</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4">
+        <f>SUM(D94:W94)</f>
+        <v>144</v>
+      </c>
+      <c r="C94" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D94" s="5">
+        <v>144</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B94">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+      <formula>288</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:W94">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="6">
+      <formula>LEN(TRIM(D2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+      <formula>500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C94">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Dataset Excel Sheets/Unique Words with IDs.xlsx
+++ b/Dataset Excel Sheets/Unique Words with IDs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="100" windowWidth="22780" windowHeight="13620"/>
+    <workbookView xWindow="260" yWindow="100" windowWidth="22780" windowHeight="13620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -392,21 +392,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -465,252 +461,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3987,7 +3737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
+    <sheetView zoomScale="59" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -4762,27 +4512,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W94"/>
   <sheetViews>
-    <sheetView zoomScale="34" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="40" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="23" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -4790,14 +4540,14 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <f>SUM(D2:W2)</f>
+      <c r="B2" s="7">
+        <f t="shared" ref="B2:B33" si="0">SUM(D2:W2)</f>
         <v>146</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <f>COUNT(D2:W2)</f>
         <v>1</v>
       </c>
@@ -4825,15 +4575,15 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <f>SUM(D3:W3)</f>
+      <c r="B3" s="7">
+        <f t="shared" si="0"/>
         <v>299</v>
       </c>
-      <c r="C3" s="4">
-        <f t="shared" ref="C3:C66" si="0">COUNT(D3:W3)</f>
+      <c r="C3" s="7">
+        <f t="shared" ref="C3:C66" si="1">COUNT(D3:W3)</f>
         <v>2</v>
       </c>
       <c r="D3" s="5">
@@ -4862,15 +4612,15 @@
       <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <f>SUM(D4:W4)</f>
+      <c r="B4" s="7">
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="C4" s="4">
-        <f t="shared" si="0"/>
+      <c r="C4" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D4" s="5">
@@ -4897,15 +4647,15 @@
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <f>SUM(D5:W5)</f>
+      <c r="B5" s="7">
+        <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="C5" s="4">
-        <f t="shared" si="0"/>
+      <c r="C5" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D5" s="5">
@@ -4932,15 +4682,15 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <f>SUM(D6:W6)</f>
+      <c r="B6" s="7">
+        <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="C6" s="4">
-        <f t="shared" si="0"/>
+      <c r="C6" s="7">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D6" s="5">
@@ -4969,15 +4719,15 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <f>SUM(D7:W7)</f>
+      <c r="B7" s="7">
+        <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="C7" s="4">
-        <f t="shared" si="0"/>
+      <c r="C7" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D7" s="5">
@@ -5004,15 +4754,15 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <f>SUM(D8:W8)</f>
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
         <v>148</v>
       </c>
-      <c r="C8" s="4">
-        <f t="shared" si="0"/>
+      <c r="C8" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D8" s="5">
@@ -5039,15 +4789,15 @@
       <c r="W8" s="5"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <f>SUM(D9:W9)</f>
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="C9" s="4">
-        <f t="shared" si="0"/>
+      <c r="C9" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D9" s="5">
@@ -5074,15 +4824,15 @@
       <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <f>SUM(D10:W10)</f>
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="C10" s="4">
-        <f t="shared" si="0"/>
+      <c r="C10" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D10" s="5">
@@ -5109,15 +4859,15 @@
       <c r="W10" s="5"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <f>SUM(D11:W11)</f>
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="C11" s="4">
-        <f t="shared" si="0"/>
+      <c r="C11" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D11" s="5">
@@ -5144,15 +4894,15 @@
       <c r="W11" s="5"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <f>SUM(D12:W12)</f>
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="C12" s="4">
-        <f t="shared" si="0"/>
+      <c r="C12" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D12" s="5">
@@ -5179,15 +4929,15 @@
       <c r="W12" s="5"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
-        <f>SUM(D13:W13)</f>
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="C13" s="4">
-        <f t="shared" si="0"/>
+      <c r="C13" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D13" s="5">
@@ -5214,15 +4964,15 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <f>SUM(D14:W14)</f>
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
         <v>1036</v>
       </c>
-      <c r="C14" s="4">
-        <f t="shared" si="0"/>
+      <c r="C14" s="7">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D14" s="5">
@@ -5261,15 +5011,15 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
-        <f>SUM(D15:W15)</f>
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
         <v>149</v>
       </c>
-      <c r="C15" s="4">
-        <f t="shared" si="0"/>
+      <c r="C15" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D15" s="5">
@@ -5296,15 +5046,15 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <f>SUM(D16:W16)</f>
+      <c r="B16" s="7">
+        <f t="shared" si="0"/>
         <v>148</v>
       </c>
-      <c r="C16" s="4">
-        <f t="shared" si="0"/>
+      <c r="C16" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D16" s="5">
@@ -5331,15 +5081,15 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
-        <f>SUM(D17:W17)</f>
+      <c r="B17" s="7">
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="C17" s="4">
-        <f t="shared" si="0"/>
+      <c r="C17" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D17" s="5">
@@ -5366,15 +5116,15 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
-        <f>SUM(D18:W18)</f>
+      <c r="B18" s="7">
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="C18" s="4">
-        <f t="shared" si="0"/>
+      <c r="C18" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D18" s="5">
@@ -5401,15 +5151,15 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
-        <f>SUM(D19:W19)</f>
+      <c r="B19" s="7">
+        <f t="shared" si="0"/>
         <v>733</v>
       </c>
-      <c r="C19" s="4">
-        <f t="shared" si="0"/>
+      <c r="C19" s="7">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D19" s="5">
@@ -5444,15 +5194,15 @@
       <c r="W19" s="5"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
-        <f>SUM(D20:W20)</f>
+      <c r="B20" s="7">
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="C20" s="4">
-        <f t="shared" si="0"/>
+      <c r="C20" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D20" s="5">
@@ -5479,15 +5229,15 @@
       <c r="W20" s="5"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
-        <f>SUM(D21:W21)</f>
+      <c r="B21" s="7">
+        <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="C21" s="4">
-        <f t="shared" si="0"/>
+      <c r="C21" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D21" s="5">
@@ -5514,15 +5264,15 @@
       <c r="W21" s="5"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
-        <f>SUM(D22:W22)</f>
+      <c r="B22" s="7">
+        <f t="shared" si="0"/>
         <v>148</v>
       </c>
-      <c r="C22" s="4">
-        <f t="shared" si="0"/>
+      <c r="C22" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D22" s="5">
@@ -5549,15 +5299,15 @@
       <c r="W22" s="5"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
-        <f>SUM(D23:W23)</f>
+      <c r="B23" s="7">
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="C23" s="4">
-        <f t="shared" si="0"/>
+      <c r="C23" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D23" s="5">
@@ -5584,15 +5334,15 @@
       <c r="W23" s="5"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
-        <f>SUM(D24:W24)</f>
+      <c r="B24" s="7">
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="C24" s="4">
-        <f t="shared" si="0"/>
+      <c r="C24" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D24" s="5">
@@ -5619,15 +5369,15 @@
       <c r="W24" s="5"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
-        <f>SUM(D25:W25)</f>
+      <c r="B25" s="7">
+        <f t="shared" si="0"/>
         <v>303</v>
       </c>
-      <c r="C25" s="4">
-        <f t="shared" si="0"/>
+      <c r="C25" s="7">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D25" s="5">
@@ -5656,15 +5406,15 @@
       <c r="W25" s="5"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
-        <f>SUM(D26:W26)</f>
+      <c r="B26" s="7">
+        <f t="shared" si="0"/>
         <v>197</v>
       </c>
-      <c r="C26" s="4">
-        <f t="shared" si="0"/>
+      <c r="C26" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D26" s="5">
@@ -5691,15 +5441,15 @@
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
-        <f>SUM(D27:W27)</f>
+      <c r="B27" s="7">
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="C27" s="4">
-        <f t="shared" si="0"/>
+      <c r="C27" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D27" s="5">
@@ -5726,15 +5476,15 @@
       <c r="W27" s="5"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
-        <f>SUM(D28:W28)</f>
+      <c r="B28" s="7">
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="C28" s="4">
-        <f t="shared" si="0"/>
+      <c r="C28" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D28" s="5">
@@ -5761,15 +5511,15 @@
       <c r="W28" s="5"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
-        <f>SUM(D29:W29)</f>
+      <c r="B29" s="7">
+        <f t="shared" si="0"/>
         <v>447</v>
       </c>
-      <c r="C29" s="4">
-        <f t="shared" si="0"/>
+      <c r="C29" s="7">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D29" s="5">
@@ -5800,15 +5550,15 @@
       <c r="W29" s="5"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
-        <f>SUM(D30:W30)</f>
+      <c r="B30" s="7">
+        <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="C30" s="4">
-        <f t="shared" si="0"/>
+      <c r="C30" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D30" s="5">
@@ -5835,15 +5585,15 @@
       <c r="W30" s="5"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
-        <f>SUM(D31:W31)</f>
+      <c r="B31" s="7">
+        <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="C31" s="4">
-        <f t="shared" si="0"/>
+      <c r="C31" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D31" s="5">
@@ -5870,15 +5620,15 @@
       <c r="W31" s="5"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
-        <f>SUM(D32:W32)</f>
+      <c r="B32" s="7">
+        <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="C32" s="4">
-        <f t="shared" si="0"/>
+      <c r="C32" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D32" s="5">
@@ -5905,15 +5655,15 @@
       <c r="W32" s="5"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
-        <f>SUM(D33:W33)</f>
+      <c r="B33" s="7">
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="C33" s="4">
-        <f t="shared" si="0"/>
+      <c r="C33" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D33" s="5">
@@ -5940,15 +5690,15 @@
       <c r="W33" s="5"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
-        <f>SUM(D34:W34)</f>
+      <c r="B34" s="7">
+        <f t="shared" ref="B34:B65" si="2">SUM(D34:W34)</f>
         <v>148</v>
       </c>
-      <c r="C34" s="4">
-        <f t="shared" si="0"/>
+      <c r="C34" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D34" s="5">
@@ -5975,15 +5725,15 @@
       <c r="W34" s="5"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
-        <f>SUM(D35:W35)</f>
+      <c r="B35" s="7">
+        <f t="shared" si="2"/>
         <v>2936</v>
       </c>
-      <c r="C35" s="4">
-        <f t="shared" si="0"/>
+      <c r="C35" s="7">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="D35" s="5">
@@ -6048,15 +5798,15 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
-        <f>SUM(D36:W36)</f>
+      <c r="B36" s="7">
+        <f t="shared" si="2"/>
         <v>436</v>
       </c>
-      <c r="C36" s="4">
-        <f t="shared" si="0"/>
+      <c r="C36" s="7">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D36" s="5">
@@ -6087,15 +5837,15 @@
       <c r="W36" s="5"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
-        <f>SUM(D37:W37)</f>
+      <c r="B37" s="7">
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="C37" s="4">
-        <f t="shared" si="0"/>
+      <c r="C37" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D37" s="5">
@@ -6122,15 +5872,15 @@
       <c r="W37" s="5"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
-        <f>SUM(D38:W38)</f>
+      <c r="B38" s="7">
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="C38" s="4">
-        <f t="shared" si="0"/>
+      <c r="C38" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D38" s="5">
@@ -6157,15 +5907,15 @@
       <c r="W38" s="5"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
-        <f>SUM(D39:W39)</f>
+      <c r="B39" s="7">
+        <f t="shared" si="2"/>
         <v>351</v>
       </c>
-      <c r="C39" s="4">
-        <f t="shared" si="0"/>
+      <c r="C39" s="7">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D39" s="5">
@@ -6194,15 +5944,15 @@
       <c r="W39" s="5"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
-        <f>SUM(D40:W40)</f>
+      <c r="B40" s="7">
+        <f t="shared" si="2"/>
         <v>894</v>
       </c>
-      <c r="C40" s="4">
-        <f t="shared" si="0"/>
+      <c r="C40" s="7">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D40" s="5">
@@ -6239,15 +5989,15 @@
       <c r="W40" s="5"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="4">
-        <f>SUM(D41:W41)</f>
+      <c r="B41" s="7">
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="C41" s="4">
-        <f t="shared" si="0"/>
+      <c r="C41" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D41" s="5">
@@ -6274,15 +6024,15 @@
       <c r="W41" s="5"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
-        <f>SUM(D42:W42)</f>
+      <c r="B42" s="7">
+        <f t="shared" si="2"/>
         <v>451</v>
       </c>
-      <c r="C42" s="4">
-        <f t="shared" si="0"/>
+      <c r="C42" s="7">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D42" s="5">
@@ -6313,15 +6063,15 @@
       <c r="W42" s="5"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
-        <f>SUM(D43:W43)</f>
+      <c r="B43" s="7">
+        <f t="shared" si="2"/>
         <v>197</v>
       </c>
-      <c r="C43" s="4">
-        <f t="shared" si="0"/>
+      <c r="C43" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D43" s="5">
@@ -6348,15 +6098,15 @@
       <c r="W43" s="5"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
-        <f>SUM(D44:W44)</f>
+      <c r="B44" s="7">
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="C44" s="4">
-        <f t="shared" si="0"/>
+      <c r="C44" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D44" s="5">
@@ -6383,15 +6133,15 @@
       <c r="W44" s="5"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="4">
-        <f>SUM(D45:W45)</f>
+      <c r="B45" s="7">
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="C45" s="4">
-        <f t="shared" si="0"/>
+      <c r="C45" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D45" s="5">
@@ -6418,15 +6168,15 @@
       <c r="W45" s="5"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="4">
-        <f>SUM(D46:W46)</f>
+      <c r="B46" s="7">
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="C46" s="4">
-        <f t="shared" si="0"/>
+      <c r="C46" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D46" s="5">
@@ -6453,15 +6203,15 @@
       <c r="W46" s="5"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="4">
-        <f>SUM(D47:W47)</f>
+      <c r="B47" s="7">
+        <f t="shared" si="2"/>
         <v>296</v>
       </c>
-      <c r="C47" s="4">
-        <f t="shared" si="0"/>
+      <c r="C47" s="7">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D47" s="5">
@@ -6490,15 +6240,15 @@
       <c r="W47" s="5"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="4">
-        <f>SUM(D48:W48)</f>
+      <c r="B48" s="7">
+        <f t="shared" si="2"/>
         <v>438</v>
       </c>
-      <c r="C48" s="4">
-        <f t="shared" si="0"/>
+      <c r="C48" s="7">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D48" s="5">
@@ -6529,15 +6279,15 @@
       <c r="W48" s="5"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="4">
-        <f>SUM(D49:W49)</f>
+      <c r="B49" s="7">
+        <f t="shared" si="2"/>
         <v>438</v>
       </c>
-      <c r="C49" s="4">
-        <f t="shared" si="0"/>
+      <c r="C49" s="7">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D49" s="5">
@@ -6568,15 +6318,15 @@
       <c r="W49" s="5"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="4">
-        <f>SUM(D50:W50)</f>
+      <c r="B50" s="7">
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="C50" s="4">
-        <f t="shared" si="0"/>
+      <c r="C50" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D50" s="5">
@@ -6603,15 +6353,15 @@
       <c r="W50" s="5"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="4">
-        <f>SUM(D51:W51)</f>
+      <c r="B51" s="7">
+        <f t="shared" si="2"/>
         <v>735</v>
       </c>
-      <c r="C51" s="4">
-        <f t="shared" si="0"/>
+      <c r="C51" s="7">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D51" s="5">
@@ -6646,15 +6396,15 @@
       <c r="W51" s="5"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A52" s="4">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="4">
-        <f>SUM(D52:W52)</f>
+      <c r="B52" s="7">
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="C52" s="4">
-        <f t="shared" si="0"/>
+      <c r="C52" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D52" s="5">
@@ -6681,15 +6431,15 @@
       <c r="W52" s="5"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A53" s="4">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="4">
-        <f>SUM(D53:W53)</f>
+      <c r="B53" s="7">
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="C53" s="4">
-        <f t="shared" si="0"/>
+      <c r="C53" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D53" s="5">
@@ -6716,15 +6466,15 @@
       <c r="W53" s="5"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A54" s="4">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="4">
-        <f>SUM(D54:W54)</f>
+      <c r="B54" s="7">
+        <f t="shared" si="2"/>
         <v>296</v>
       </c>
-      <c r="C54" s="4">
-        <f t="shared" si="0"/>
+      <c r="C54" s="7">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D54" s="5">
@@ -6753,15 +6503,15 @@
       <c r="W54" s="5"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A55" s="4">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="4">
-        <f>SUM(D55:W55)</f>
+      <c r="B55" s="7">
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="C55" s="4">
-        <f t="shared" si="0"/>
+      <c r="C55" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D55" s="5">
@@ -6788,15 +6538,15 @@
       <c r="W55" s="5"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A56" s="4">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="4">
-        <f>SUM(D56:W56)</f>
+      <c r="B56" s="7">
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="C56" s="4">
-        <f t="shared" si="0"/>
+      <c r="C56" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D56" s="5">
@@ -6823,15 +6573,15 @@
       <c r="W56" s="5"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A57" s="4">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="4">
-        <f>SUM(D57:W57)</f>
+      <c r="B57" s="7">
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="C57" s="4">
-        <f t="shared" si="0"/>
+      <c r="C57" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D57" s="5">
@@ -6858,15 +6608,15 @@
       <c r="W57" s="5"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A58" s="4">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="4">
-        <f>SUM(D58:W58)</f>
+      <c r="B58" s="7">
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="C58" s="4">
-        <f t="shared" si="0"/>
+      <c r="C58" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D58" s="5">
@@ -6893,15 +6643,15 @@
       <c r="W58" s="5"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A59" s="4">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="4">
-        <f>SUM(D59:W59)</f>
+      <c r="B59" s="7">
+        <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="C59" s="4">
-        <f t="shared" si="0"/>
+      <c r="C59" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D59" s="5">
@@ -6928,15 +6678,15 @@
       <c r="W59" s="5"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A60" s="4">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="4">
-        <f>SUM(D60:W60)</f>
+      <c r="B60" s="7">
+        <f t="shared" si="2"/>
         <v>293</v>
       </c>
-      <c r="C60" s="4">
-        <f t="shared" si="0"/>
+      <c r="C60" s="7">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D60" s="5">
@@ -6965,15 +6715,15 @@
       <c r="W60" s="5"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A61" s="4">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="4">
-        <f>SUM(D61:W61)</f>
+      <c r="B61" s="7">
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="C61" s="4">
-        <f t="shared" si="0"/>
+      <c r="C61" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D61" s="5">
@@ -7000,15 +6750,15 @@
       <c r="W61" s="5"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A62" s="4">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="4">
-        <f>SUM(D62:W62)</f>
+      <c r="B62" s="7">
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="C62" s="4">
-        <f t="shared" si="0"/>
+      <c r="C62" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D62" s="5">
@@ -7035,15 +6785,15 @@
       <c r="W62" s="5"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A63" s="4">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="4">
-        <f>SUM(D63:W63)</f>
+      <c r="B63" s="7">
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="C63" s="4">
-        <f t="shared" si="0"/>
+      <c r="C63" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D63" s="5">
@@ -7070,15 +6820,15 @@
       <c r="W63" s="5"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A64" s="4">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="4">
-        <f>SUM(D64:W64)</f>
+      <c r="B64" s="7">
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="C64" s="4">
-        <f t="shared" si="0"/>
+      <c r="C64" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D64" s="5">
@@ -7105,15 +6855,15 @@
       <c r="W64" s="5"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A65" s="4">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="4">
-        <f>SUM(D65:W65)</f>
+      <c r="B65" s="7">
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="C65" s="4">
-        <f t="shared" si="0"/>
+      <c r="C65" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D65" s="5">
@@ -7140,15 +6890,15 @@
       <c r="W65" s="5"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A66" s="4">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="4">
-        <f>SUM(D66:W66)</f>
+      <c r="B66" s="7">
+        <f t="shared" ref="B66:B94" si="3">SUM(D66:W66)</f>
         <v>146</v>
       </c>
-      <c r="C66" s="4">
-        <f t="shared" si="0"/>
+      <c r="C66" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D66" s="5">
@@ -7175,15 +6925,15 @@
       <c r="W66" s="5"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A67" s="4">
+      <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="4">
-        <f>SUM(D67:W67)</f>
+      <c r="B67" s="7">
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
-      <c r="C67" s="4">
-        <f t="shared" ref="C67:C94" si="1">COUNT(D67:W67)</f>
+      <c r="C67" s="7">
+        <f t="shared" ref="C67:C94" si="4">COUNT(D67:W67)</f>
         <v>2</v>
       </c>
       <c r="D67" s="5">
@@ -7212,15 +6962,15 @@
       <c r="W67" s="5"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A68" s="4">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="4">
-        <f>SUM(D68:W68)</f>
+      <c r="B68" s="7">
+        <f t="shared" si="3"/>
         <v>153</v>
       </c>
-      <c r="C68" s="4">
-        <f t="shared" si="1"/>
+      <c r="C68" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D68" s="5">
@@ -7247,15 +6997,15 @@
       <c r="W68" s="5"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A69" s="4">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="4">
-        <f>SUM(D69:W69)</f>
+      <c r="B69" s="7">
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
-      <c r="C69" s="4">
-        <f t="shared" si="1"/>
+      <c r="C69" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D69" s="5">
@@ -7282,15 +7032,15 @@
       <c r="W69" s="5"/>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A70" s="4">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="4">
-        <f>SUM(D70:W70)</f>
+      <c r="B70" s="7">
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="C70" s="4">
-        <f t="shared" si="1"/>
+      <c r="C70" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D70" s="5">
@@ -7317,15 +7067,15 @@
       <c r="W70" s="5"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A71" s="4">
+      <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="4">
-        <f>SUM(D71:W71)</f>
+      <c r="B71" s="7">
+        <f t="shared" si="3"/>
         <v>146</v>
       </c>
-      <c r="C71" s="4">
-        <f t="shared" si="1"/>
+      <c r="C71" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D71" s="5">
@@ -7352,15 +7102,15 @@
       <c r="W71" s="5"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A72" s="4">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="4">
-        <f>SUM(D72:W72)</f>
+      <c r="B72" s="7">
+        <f t="shared" si="3"/>
         <v>311</v>
       </c>
-      <c r="C72" s="4">
-        <f t="shared" si="1"/>
+      <c r="C72" s="7">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D72" s="5">
@@ -7389,15 +7139,15 @@
       <c r="W72" s="5"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A73" s="4">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="4">
-        <f>SUM(D73:W73)</f>
+      <c r="B73" s="7">
+        <f t="shared" si="3"/>
         <v>146</v>
       </c>
-      <c r="C73" s="4">
-        <f t="shared" si="1"/>
+      <c r="C73" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D73" s="5">
@@ -7424,15 +7174,15 @@
       <c r="W73" s="5"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A74" s="4">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="4">
-        <f>SUM(D74:W74)</f>
+      <c r="B74" s="7">
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
-      <c r="C74" s="4">
-        <f t="shared" si="1"/>
+      <c r="C74" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D74" s="5">
@@ -7459,15 +7209,15 @@
       <c r="W74" s="5"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A75" s="4">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="4">
-        <f>SUM(D75:W75)</f>
+      <c r="B75" s="7">
+        <f t="shared" si="3"/>
         <v>468</v>
       </c>
-      <c r="C75" s="4">
-        <f t="shared" si="1"/>
+      <c r="C75" s="7">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D75" s="5">
@@ -7498,15 +7248,15 @@
       <c r="W75" s="5"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A76" s="4">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="4">
-        <f>SUM(D76:W76)</f>
+      <c r="B76" s="7">
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="C76" s="4">
-        <f t="shared" si="1"/>
+      <c r="C76" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D76" s="5">
@@ -7533,15 +7283,15 @@
       <c r="W76" s="5"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A77" s="4">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="4">
-        <f>SUM(D77:W77)</f>
+      <c r="B77" s="7">
+        <f t="shared" si="3"/>
         <v>146</v>
       </c>
-      <c r="C77" s="4">
-        <f t="shared" si="1"/>
+      <c r="C77" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D77" s="5">
@@ -7568,15 +7318,15 @@
       <c r="W77" s="5"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A78" s="4">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="4">
-        <f>SUM(D78:W78)</f>
+      <c r="B78" s="7">
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
-      <c r="C78" s="4">
-        <f t="shared" si="1"/>
+      <c r="C78" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D78" s="5">
@@ -7603,15 +7353,15 @@
       <c r="W78" s="5"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A79" s="4">
+      <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="4">
-        <f>SUM(D79:W79)</f>
+      <c r="B79" s="7">
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
-      <c r="C79" s="4">
-        <f t="shared" si="1"/>
+      <c r="C79" s="7">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D79" s="5">
@@ -7640,15 +7390,15 @@
       <c r="W79" s="5"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A80" s="4">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="4">
-        <f>SUM(D80:W80)</f>
+      <c r="B80" s="7">
+        <f t="shared" si="3"/>
         <v>594</v>
       </c>
-      <c r="C80" s="4">
-        <f t="shared" si="1"/>
+      <c r="C80" s="7">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D80" s="5">
@@ -7681,15 +7431,15 @@
       <c r="W80" s="5"/>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A81" s="4">
+      <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="4">
-        <f>SUM(D81:W81)</f>
+      <c r="B81" s="7">
+        <f t="shared" si="3"/>
         <v>289</v>
       </c>
-      <c r="C81" s="4">
-        <f t="shared" si="1"/>
+      <c r="C81" s="7">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D81" s="5">
@@ -7718,15 +7468,15 @@
       <c r="W81" s="5"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A82" s="4">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="4">
-        <f>SUM(D82:W82)</f>
+      <c r="B82" s="7">
+        <f t="shared" si="3"/>
         <v>148</v>
       </c>
-      <c r="C82" s="4">
-        <f t="shared" si="1"/>
+      <c r="C82" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D82" s="5">
@@ -7753,15 +7503,15 @@
       <c r="W82" s="5"/>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A83" s="4">
+      <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="4">
-        <f>SUM(D83:W83)</f>
+      <c r="B83" s="7">
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
-      <c r="C83" s="4">
-        <f t="shared" si="1"/>
+      <c r="C83" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D83" s="5">
@@ -7788,15 +7538,15 @@
       <c r="W83" s="5"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A84" s="4">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="4">
-        <f>SUM(D84:W84)</f>
+      <c r="B84" s="7">
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
-      <c r="C84" s="4">
-        <f t="shared" si="1"/>
+      <c r="C84" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D84" s="5">
@@ -7823,15 +7573,15 @@
       <c r="W84" s="5"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A85" s="4">
+      <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="4">
-        <f>SUM(D85:W85)</f>
+      <c r="B85" s="7">
+        <f t="shared" si="3"/>
         <v>146</v>
       </c>
-      <c r="C85" s="4">
-        <f t="shared" si="1"/>
+      <c r="C85" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D85" s="5">
@@ -7858,15 +7608,15 @@
       <c r="W85" s="5"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A86" s="4">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="4">
-        <f>SUM(D86:W86)</f>
+      <c r="B86" s="7">
+        <f t="shared" si="3"/>
         <v>587</v>
       </c>
-      <c r="C86" s="4">
-        <f t="shared" si="1"/>
+      <c r="C86" s="7">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D86" s="5">
@@ -7899,15 +7649,15 @@
       <c r="W86" s="5"/>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A87" s="4">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="4">
-        <f>SUM(D87:W87)</f>
+      <c r="B87" s="7">
+        <f t="shared" si="3"/>
         <v>295</v>
       </c>
-      <c r="C87" s="4">
-        <f t="shared" si="1"/>
+      <c r="C87" s="7">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D87" s="5">
@@ -7936,15 +7686,15 @@
       <c r="W87" s="5"/>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A88" s="4">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="4">
-        <f>SUM(D88:W88)</f>
+      <c r="B88" s="7">
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="C88" s="4">
-        <f t="shared" si="1"/>
+      <c r="C88" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D88" s="5">
@@ -7971,15 +7721,15 @@
       <c r="W88" s="5"/>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A89" s="4">
+      <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="4">
-        <f>SUM(D89:W89)</f>
+      <c r="B89" s="7">
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
-      <c r="C89" s="4">
-        <f t="shared" si="1"/>
+      <c r="C89" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D89" s="5">
@@ -8006,15 +7756,15 @@
       <c r="W89" s="5"/>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A90" s="4">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="4">
-        <f>SUM(D90:W90)</f>
+      <c r="B90" s="7">
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
-      <c r="C90" s="4">
-        <f t="shared" si="1"/>
+      <c r="C90" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D90" s="5">
@@ -8041,15 +7791,15 @@
       <c r="W90" s="5"/>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A91" s="4">
+      <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="4">
-        <f>SUM(D91:W91)</f>
+      <c r="B91" s="7">
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
-      <c r="C91" s="4">
-        <f t="shared" si="1"/>
+      <c r="C91" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D91" s="5">
@@ -8076,15 +7826,15 @@
       <c r="W91" s="5"/>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A92" s="4">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="4">
-        <f>SUM(D92:W92)</f>
+      <c r="B92" s="7">
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
-      <c r="C92" s="4">
-        <f t="shared" si="1"/>
+      <c r="C92" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D92" s="5">
@@ -8111,15 +7861,15 @@
       <c r="W92" s="5"/>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A93" s="4">
+      <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="4">
-        <f>SUM(D93:W93)</f>
+      <c r="B93" s="7">
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
-      <c r="C93" s="4">
-        <f t="shared" si="1"/>
+      <c r="C93" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D93" s="5">
@@ -8146,15 +7896,15 @@
       <c r="W93" s="5"/>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A94" s="4">
+      <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="4">
-        <f>SUM(D94:W94)</f>
+      <c r="B94" s="7">
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="C94" s="4">
-        <f t="shared" si="1"/>
+      <c r="C94" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D94" s="5">
@@ -8182,25 +7932,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B94">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>288</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:W94">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C94">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
